--- a/ExcelTool/MetaExporterCS/MetaDataXLS/Gacha.xlsx
+++ b/ExcelTool/MetaExporterCS/MetaDataXLS/Gacha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_BF\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BalloonBattle\trunk\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AF4AAC-6DCE-44B4-B39C-3D3783AAD52D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB81A4-BCF6-45AA-9AE7-73AD9C99849A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gacha" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,6 +507,10 @@
   </si>
   <si>
     <t>TenCostValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +910,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -982,10 +986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB63AA3C-1024-400B-BDB8-1C9308E23F5C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1014,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1022,6 +1026,14 @@
         <v>17</v>
       </c>
       <c r="B4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
         <v>0.1</v>
       </c>
     </row>
@@ -1034,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322E51FF-0DFB-45A5-BC01-FB802C48BDE9}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1060,7 @@
     <col min="7" max="7" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>1004</v>
+        <v>100400</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1090,7 +1102,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1098,7 +1110,7 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>1006</v>
+        <v>100600</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -1108,7 +1120,7 @@
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1116,7 +1128,7 @@
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>1010</v>
+        <v>101000</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1126,7 +1138,7 @@
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1134,7 +1146,7 @@
         <v>1000</v>
       </c>
       <c r="C5">
-        <v>1013</v>
+        <v>101300</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -1144,7 +1156,7 @@
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1152,7 +1164,7 @@
         <v>1000</v>
       </c>
       <c r="C6">
-        <v>1014</v>
+        <v>101400</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1162,7 +1174,7 @@
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1170,7 +1182,7 @@
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>1017</v>
+        <v>101700</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1180,7 +1192,7 @@
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>1000</v>
       </c>
       <c r="C8">
-        <v>1019</v>
+        <v>101900</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1198,7 +1210,7 @@
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1206,7 +1218,7 @@
         <v>1000</v>
       </c>
       <c r="C9">
-        <v>1024</v>
+        <v>102400</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1215,9 +1227,8 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1225,7 +1236,7 @@
         <v>1000</v>
       </c>
       <c r="C10">
-        <v>1026</v>
+        <v>102600</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1234,9 +1245,8 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1244,7 +1254,7 @@
         <v>1000</v>
       </c>
       <c r="C11">
-        <v>1027</v>
+        <v>102700</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1253,10 +1263,9 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="C12">
-        <v>1029</v>
+        <v>102900</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1273,10 +1282,9 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1284,7 +1292,7 @@
         <v>1000</v>
       </c>
       <c r="C13">
-        <v>1031</v>
+        <v>103100</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1294,7 +1302,7 @@
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1302,7 +1310,7 @@
         <v>1000</v>
       </c>
       <c r="C14">
-        <v>1033</v>
+        <v>103300</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1312,7 +1320,7 @@
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1320,7 +1328,7 @@
         <v>1000</v>
       </c>
       <c r="C15">
-        <v>1034</v>
+        <v>103400</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1330,7 +1338,7 @@
         <v>4.1666666666666661</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1338,7 +1346,7 @@
         <v>1000</v>
       </c>
       <c r="C16">
-        <v>1036</v>
+        <v>103600</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1356,7 +1364,7 @@
         <v>1000</v>
       </c>
       <c r="C17">
-        <v>1039</v>
+        <v>103900</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1374,7 +1382,7 @@
         <v>1000</v>
       </c>
       <c r="C18">
-        <v>1040</v>
+        <v>104000</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1392,7 +1400,7 @@
         <v>1000</v>
       </c>
       <c r="C19">
-        <v>1042</v>
+        <v>104200</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -1410,7 +1418,7 @@
         <v>1000</v>
       </c>
       <c r="C20">
-        <v>1043</v>
+        <v>104300</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1428,7 +1436,7 @@
         <v>1000</v>
       </c>
       <c r="C21">
-        <v>1045</v>
+        <v>104500</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1446,7 +1454,7 @@
         <v>1000</v>
       </c>
       <c r="C22">
-        <v>1048</v>
+        <v>104800</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1464,7 +1472,7 @@
         <v>1000</v>
       </c>
       <c r="C23">
-        <v>1050</v>
+        <v>105000</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1482,7 +1490,7 @@
         <v>1000</v>
       </c>
       <c r="C24">
-        <v>1051</v>
+        <v>105100</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1500,7 +1508,7 @@
         <v>1000</v>
       </c>
       <c r="C25">
-        <v>1052</v>
+        <v>105200</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1518,7 +1526,7 @@
         <v>110</v>
       </c>
       <c r="C26">
-        <v>1007</v>
+        <v>100700</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1540,13 +1548,13 @@
         <v>110</v>
       </c>
       <c r="C27">
-        <v>1009</v>
+        <v>100900</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F26:F49" si="1">(B27/$G$26)*100</f>
+        <f t="shared" ref="F27:F49" si="1">(B27/$G$26)*100</f>
         <v>4.1666666666666661</v>
       </c>
     </row>
@@ -1558,7 +1566,7 @@
         <v>110</v>
       </c>
       <c r="C28">
-        <v>1020</v>
+        <v>102000</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1576,7 +1584,7 @@
         <v>110</v>
       </c>
       <c r="C29">
-        <v>1021</v>
+        <v>102100</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1594,7 +1602,7 @@
         <v>110</v>
       </c>
       <c r="C30">
-        <v>1023</v>
+        <v>102300</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1612,7 +1620,7 @@
         <v>110</v>
       </c>
       <c r="C31">
-        <v>1030</v>
+        <v>103000</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1630,7 +1638,7 @@
         <v>110</v>
       </c>
       <c r="C32">
-        <v>1032</v>
+        <v>103200</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1648,7 +1656,7 @@
         <v>110</v>
       </c>
       <c r="C33">
-        <v>1035</v>
+        <v>103500</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1666,7 +1674,7 @@
         <v>110</v>
       </c>
       <c r="C34">
-        <v>1037</v>
+        <v>103700</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1684,7 +1692,7 @@
         <v>110</v>
       </c>
       <c r="C35">
-        <v>1038</v>
+        <v>103800</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1702,7 +1710,7 @@
         <v>110</v>
       </c>
       <c r="C36">
-        <v>1049</v>
+        <v>104900</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1720,7 +1728,7 @@
         <v>110</v>
       </c>
       <c r="C37">
-        <v>1053</v>
+        <v>105300</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1738,7 +1746,7 @@
         <v>110</v>
       </c>
       <c r="C38" s="6">
-        <v>1044</v>
+        <v>104400</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -1756,7 +1764,7 @@
         <v>110</v>
       </c>
       <c r="C39" s="6">
-        <v>1008</v>
+        <v>100800</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -1774,7 +1782,7 @@
         <v>110</v>
       </c>
       <c r="C40" s="6">
-        <v>1011</v>
+        <v>101100</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1792,7 +1800,7 @@
         <v>110</v>
       </c>
       <c r="C41" s="6">
-        <v>1022</v>
+        <v>102200</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -1810,7 +1818,7 @@
         <v>110</v>
       </c>
       <c r="C42" s="6">
-        <v>1028</v>
+        <v>102800</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -1828,7 +1836,7 @@
         <v>110</v>
       </c>
       <c r="C43" s="6">
-        <v>1041</v>
+        <v>104100</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1846,7 +1854,7 @@
         <v>110</v>
       </c>
       <c r="C44" s="6">
-        <v>1054</v>
+        <v>105400</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1864,7 +1872,7 @@
         <v>110</v>
       </c>
       <c r="C45" s="6">
-        <v>1055</v>
+        <v>105500</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1882,7 +1890,7 @@
         <v>110</v>
       </c>
       <c r="C46" s="6">
-        <v>1056</v>
+        <v>105600</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -1900,7 +1908,7 @@
         <v>110</v>
       </c>
       <c r="C47" s="6">
-        <v>1057</v>
+        <v>105700</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1918,7 +1926,7 @@
         <v>110</v>
       </c>
       <c r="C48" s="6">
-        <v>1058</v>
+        <v>105800</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1936,7 +1944,7 @@
         <v>110</v>
       </c>
       <c r="C49" s="6">
-        <v>1059</v>
+        <v>105900</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
